--- a/cuadruplosManuales.xlsx
+++ b/cuadruplosManuales.xlsx
@@ -1494,8 +1494,8 @@
   <sheetPr/>
   <dimension ref="G3:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1859,10 +1859,10 @@
         <v>31</v>
       </c>
       <c r="I14" s="1">
-        <v>5001</v>
+        <v>12002</v>
       </c>
       <c r="J14" s="1">
-        <v>5002</v>
+        <v>12001</v>
       </c>
       <c r="K14" s="1">
         <v>13003</v>
